--- a/Dokumentasjon/vedlegg/8. Prosjektplan.xlsx
+++ b/Dokumentasjon/vedlegg/8. Prosjektplan.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="270" yWindow="570" windowWidth="21015" windowHeight="11955"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Ark 1" state="visible" r:id="rId3"/>
+    <sheet name="Ark 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>Utvikling av prosjektet</t>
   </si>
@@ -152,60 +155,62 @@
   </si>
   <si>
     <t>Brukeropplevelse: Alle</t>
+  </si>
+  <si>
+    <t>Komponenter har blitt testet forløpende</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Iterasjon 2</t>
+  </si>
+  <si>
+    <t>Bjørn Johannesse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -213,9 +218,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -240,92 +243,393 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="2">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="164" borderId="0" fontId="0" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="3">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="3" xfId="0" numFmtId="0" borderId="0" fontId="0" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="4">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="65.0"/>
-    <col min="2" customWidth="1" max="2" width="25.14"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="2" r="A1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" s="5" r="B2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="5" r="C2">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="5" r="D2">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="5" r="E2">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="5" r="F2">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="5" r="G2">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="5" r="H2">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" s="6" r="A3">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" r="A4">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c s="3" r="C4">
-        <v>41708</v>
-      </c>
-      <c s="3" r="D4">
+      <c r="C4" s="6">
+        <v>41708</v>
+      </c>
+      <c r="D4" s="6">
         <v>41708</v>
       </c>
       <c r="E4">
@@ -338,18 +642,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c t="s" r="A5">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="B5">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c s="3" r="C5">
-        <v>41709</v>
-      </c>
-      <c s="3" r="D5">
-        <v>41709</v>
+      <c r="C5" s="6">
+        <v>41708</v>
+      </c>
+      <c r="D5" s="6">
+        <v>41708</v>
       </c>
       <c r="E5">
         <v>0.25</v>
@@ -361,17 +665,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s" r="A6">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="B6">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c s="3" r="C6">
-        <v>41708</v>
-      </c>
-      <c s="3" r="D6">
+      <c r="C6" s="6">
+        <v>41708</v>
+      </c>
+      <c r="D6" s="6">
         <v>41708</v>
       </c>
       <c r="E6">
@@ -384,17 +688,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c t="s" r="A7">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="B7">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c s="3" r="C7">
-        <v>41708</v>
-      </c>
-      <c s="3" r="D7">
+      <c r="C7" s="6">
+        <v>41708</v>
+      </c>
+      <c r="D7" s="6">
         <v>41708</v>
       </c>
       <c r="E7">
@@ -407,17 +711,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c t="s" r="A8">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c t="s" r="B8">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c s="3" r="C8">
-        <v>41709</v>
-      </c>
-      <c s="3" r="D8">
+      <c r="C8" s="6">
+        <v>41708</v>
+      </c>
+      <c r="D8" s="6">
         <v>41709</v>
       </c>
       <c r="E8">
@@ -430,37 +734,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c t="s" s="6" r="A10">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11">
-      <c t="s" r="A11">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="B11">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c s="3" r="C11">
+      <c r="C11" s="6">
+        <v>41708</v>
+      </c>
+      <c r="D11" s="6">
         <v>41709</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c t="s" r="A12">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="B12">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c s="3" r="C12">
-        <v>41708</v>
-      </c>
-      <c s="3" r="D12">
-        <v>41708</v>
+      <c r="C12" s="6">
+        <v>41708</v>
+      </c>
+      <c r="D12" s="6">
+        <v>41709</v>
       </c>
       <c r="E12">
         <v>0.5</v>
@@ -472,46 +782,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c t="s" r="A13">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="B13">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c s="3" r="C13">
+      <c r="C13" s="6">
+        <v>41708</v>
+      </c>
+      <c r="D13" s="6">
         <v>41709</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
     </row>
-    <row r="14">
-      <c t="s" r="A14">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="B14">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c s="3" r="C14">
-        <v>41708</v>
+      <c r="C14" s="6">
+        <v>41708</v>
+      </c>
+      <c r="D14" s="6">
+        <v>41709</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
     </row>
-    <row r="15">
-      <c t="s" r="A15">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="B15">
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c s="3" r="C15">
-        <v>41710</v>
-      </c>
-      <c s="3" r="D15">
-        <v>41710</v>
+      <c r="C15" s="6">
+        <v>41708</v>
+      </c>
+      <c r="D15" s="6">
+        <v>41711</v>
       </c>
       <c r="E15">
         <v>0.25</v>
@@ -523,298 +839,432 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c t="s" s="6" r="A17">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18">
-      <c t="s" r="A18">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="B18">
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19">
-      <c t="s" r="A19">
+      <c r="C18" s="7">
+        <v>41709</v>
+      </c>
+      <c r="D18" s="7">
+        <v>41710</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="B19">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20">
-      <c t="s" r="A20">
+      <c r="C19" s="7">
+        <v>41709</v>
+      </c>
+      <c r="D19" s="7">
+        <v>41710</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="B20">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21">
-      <c t="s" r="A21">
+      <c r="C20" s="7">
+        <v>41709</v>
+      </c>
+      <c r="D20" s="7">
+        <v>41711</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="B21">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22">
-      <c t="s" r="A22">
+      <c r="C21" s="7">
+        <v>41709</v>
+      </c>
+      <c r="D21" s="7">
+        <v>41711</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="B22">
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23">
-      <c t="s" r="A23">
+      <c r="C22" s="7">
+        <v>41709</v>
+      </c>
+      <c r="D22" s="7">
+        <v>41712</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25">
-      <c t="s" s="6" r="A25">
+      <c r="B23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="7">
+        <v>41708</v>
+      </c>
+      <c r="D23" s="7">
+        <v>41712</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26">
-      <c t="s" r="A26">
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="B26">
+      <c r="B26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27">
-      <c t="s" r="A27">
+      <c r="C26" s="7">
+        <v>41711</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c t="s" r="B27">
+      <c r="B27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28">
-      <c t="s" r="A28">
+      <c r="C27" s="7">
+        <v>41711</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="B28">
+      <c r="B28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29">
-      <c t="s" r="A29">
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31">
-      <c t="s" s="6" r="A31">
+      <c r="B29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="7">
+        <v>41712</v>
+      </c>
+      <c r="D29" s="7">
+        <v>41712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32">
-      <c t="s" r="A32">
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33">
-      <c t="s" r="A33">
+      <c r="B32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="7">
+        <v>41712</v>
+      </c>
+      <c r="D32" s="7">
+        <v>41712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34">
-      <c t="s" r="A34">
+      <c r="B33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="7">
+        <v>41712</v>
+      </c>
+      <c r="D33" s="7">
+        <v>41712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35">
-      <c t="s" r="A35">
+      <c r="H34" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36">
-      <c t="s" r="A36">
+      <c r="B35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="7">
+        <v>41712</v>
+      </c>
+      <c r="D35" s="7">
+        <v>41712</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37">
-      <c t="s" s="1" r="A37">
+      <c r="B36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="7">
+        <v>41712</v>
+      </c>
+      <c r="D36" s="7">
+        <v>41712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
-      <c s="5" r="B37"/>
-      <c s="5" r="C37"/>
-      <c s="5" r="D37"/>
-      <c s="5" r="E37"/>
-      <c s="5" r="F37"/>
-      <c s="5" r="G37"/>
-      <c s="5" r="H37"/>
-    </row>
-    <row r="40">
-      <c t="s" s="4" r="A40">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41">
-      <c t="s" s="5" r="A41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="5" r="B41">
+      <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="5" r="C41">
+      <c r="C41" s="4" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="5" r="D41">
+      <c r="D41" s="4" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="5" r="E41">
+      <c r="E41" s="4" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="5" r="F41">
+      <c r="F41" s="4" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="5" r="G41">
+      <c r="G41" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47">
-      <c t="s" s="4" r="A47">
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48">
-      <c t="s" s="5" r="A48">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="5" r="B48">
+      <c r="B48" s="4" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="5" r="C48">
+      <c r="C48" s="4" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="5" r="D48">
+      <c r="D48" s="4" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="5" r="E48">
+      <c r="E48" s="4" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="5" r="F48">
+      <c r="F48" s="4" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="5" r="G48">
+      <c r="G48" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54">
-      <c t="s" s="4" r="A54">
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55">
-      <c t="s" s="5" r="A55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="5" r="B55">
+      <c r="B55" s="4" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="5" r="C55">
+      <c r="C55" s="4" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="5" r="D55">
+      <c r="D55" s="4" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="5" r="E55">
+      <c r="E55" s="4" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="5" r="F55">
+      <c r="F55" s="4" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="5" r="G55">
+      <c r="G55" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61">
-      <c s="4" r="A61"/>
-    </row>
-    <row r="62">
-      <c t="s" s="5" r="A62">
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="5" r="B62">
+      <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="5" r="C62">
+      <c r="C62" s="4" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="5" r="D62">
+      <c r="D62" s="4" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="5" r="E62">
+      <c r="E62" s="4" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="5" r="F62">
+      <c r="F62" s="4" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="5" r="G62">
+      <c r="G62" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68">
-      <c t="s" s="4" r="A68">
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="69">
-      <c t="s" s="5" r="A69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="5" r="B69">
+      <c r="B69" s="4" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="5" r="C69">
+      <c r="C69" s="4" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="5" r="D69">
+      <c r="D69" s="4" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="5" r="E69">
+      <c r="E69" s="4" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="5" r="F69">
+      <c r="F69" s="4" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="5" r="G69">
+      <c r="G69" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75">
-      <c t="s" s="4" r="A75">
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76">
-      <c t="s" s="5" r="A76">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="5" r="B76">
+      <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="5" r="C76">
+      <c r="C76" s="4" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="5" r="D76">
+      <c r="D76" s="4" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="5" r="E76">
+      <c r="E76" s="4" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="5" r="F76">
+      <c r="F76" s="4" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="5" r="G76">
+      <c r="G76" s="4" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumentasjon/vedlegg/8. Prosjektplan.xlsx
+++ b/Dokumentasjon/vedlegg/8. Prosjektplan.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Ark 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -174,7 +174,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -264,7 +264,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -586,7 +586,7 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -758,6 +758,9 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -798,6 +801,9 @@
       <c r="E13">
         <v>5</v>
       </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -815,6 +821,9 @@
       <c r="E14">
         <v>2</v>
       </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -982,6 +991,15 @@
       <c r="C26" s="7">
         <v>41711</v>
       </c>
+      <c r="D26" s="7">
+        <v>41712</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -993,6 +1011,15 @@
       <c r="C27" s="7">
         <v>41711</v>
       </c>
+      <c r="D27" s="7">
+        <v>41712</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1015,6 +1042,12 @@
       <c r="D29" s="7">
         <v>41712</v>
       </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -1034,6 +1067,12 @@
       <c r="D32" s="7">
         <v>41712</v>
       </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1048,6 +1087,12 @@
       <c r="D33" s="7">
         <v>41712</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1070,6 +1115,12 @@
       <c r="D35" s="7">
         <v>41712</v>
       </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -1084,6 +1135,12 @@
       <c r="D36" s="7">
         <v>41712</v>
       </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -1092,8 +1149,14 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="E37" s="4">
+        <f>SUM(E4:E36)</f>
+        <v>52.5</v>
+      </c>
+      <c r="F37" s="4">
+        <f>SUM(F4:F36)</f>
+        <v>51.75</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
